--- a/input_xlsx/Flora 003.xlsx
+++ b/input_xlsx/Flora 003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Biodiverskripsi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20620" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Literature" sheetId="6" r:id="rId3"/>
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +28,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -429,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -649,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -904,7 +899,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -948,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1442,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1530,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1574,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1618,7 +1613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0">
+    <comment ref="Q1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1648,7 @@
     <author>Primadieta</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1697,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1741,7 +1736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1785,7 +1780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1873,7 +1868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,7 +1956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2049,7 +2044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2083,7 +2078,7 @@
     <author>Kyle Braak</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2127,7 +2122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2171,7 +2166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2196,7 +2191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2284,7 +2279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2328,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2372,7 +2367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2416,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2465,7 +2460,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -2605,9 +2600,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>PAPUA BARAT</t>
   </si>
   <si>
@@ -2635,33 +2627,9 @@
     <t>PAPUA</t>
   </si>
   <si>
-    <t>Desa mupi</t>
-  </si>
-  <si>
     <t>jenis</t>
   </si>
   <si>
-    <t>DM adalah Desa mupi</t>
-  </si>
-  <si>
-    <t>Da adalah Desa acemo</t>
-  </si>
-  <si>
-    <t>Dw adalah Desa warkapi</t>
-  </si>
-  <si>
-    <t>Desa acemo</t>
-  </si>
-  <si>
-    <t>Desa warkapi</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA002</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA003</t>
-  </si>
-  <si>
     <t>ANIMALIA</t>
   </si>
   <si>
@@ -2704,24 +2672,6 @@
     <t>UNIPA-2001ER-AF003-CAPA001-VE003</t>
   </si>
   <si>
-    <t>UNIPA-2001ER-AF003-CAPA002-VE001</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA002-VE002</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA002-VE003</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA003-VE001</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA003-VE002</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA003-VE003</t>
-  </si>
-  <si>
     <t>Phot syei</t>
   </si>
   <si>
@@ -2767,34 +2717,37 @@
     <t>Undergraduate</t>
   </si>
   <si>
-    <t>UNIPA-2001ER-AF002</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF002-CAPA001</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF002-CAPA002</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF002-CAPA003</t>
-  </si>
-  <si>
-    <t>Observastion</t>
-  </si>
-  <si>
     <t>CAPA001-Dm</t>
   </si>
   <si>
-    <t>CAPA002-Da</t>
-  </si>
-  <si>
-    <t>CAPA003-Dw</t>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Desa mupi, Desa acemo, Desa warkapi</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AF003-CAPA001-VE004</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AF003-CAPA001-VE005</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AF003-CAPA001-VE006</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AF003-CAPA001-VE007</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AF003-CAPA001-VE008</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AF003-CAPA001-VE009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2880,7 +2833,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2895,12 +2848,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3056,7 +3003,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -3065,7 +3012,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3073,8 +3019,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="90">
@@ -3504,34 +3448,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="A2:J11"/>
+      <selection pane="bottomLeft" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="64.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3593,35 +3537,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="F2" s="7">
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="10">
+        <v>85</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="9">
         <v>134.064325</v>
       </c>
       <c r="M2" t="s">
@@ -3631,177 +3575,62 @@
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
       <c r="S2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="9">
-        <v>-1.0926959999999999</v>
-      </c>
-      <c r="L3" s="10">
-        <v>134.04037</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" t="s">
-        <v>59</v>
-      </c>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="9">
-        <v>-1.150096</v>
-      </c>
-      <c r="L4" s="10">
-        <v>134.10925800000001</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" t="s">
-        <v>60</v>
-      </c>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -3818,35 +3647,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A11" sqref="A11:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="168.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="168.58203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3899,35 +3728,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="9">
+        <v>70</v>
+      </c>
+      <c r="I2" s="8">
         <v>-1.0292060000000001</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>134.064325</v>
       </c>
       <c r="K2" t="s">
@@ -3936,43 +3765,45 @@
       <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="M2" s="13">
+        <v>1</v>
+      </c>
       <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="9">
+        <v>73</v>
+      </c>
+      <c r="I3" s="8">
         <v>-1.0292060000000001</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>134.064325</v>
       </c>
       <c r="K3" t="s">
@@ -3981,405 +3812,343 @@
       <c r="L3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="8">
+        <v>-1.0292060000000001</v>
+      </c>
+      <c r="J4" s="9">
+        <v>134.064325</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="8">
+        <v>-1.0926959999999999</v>
+      </c>
+      <c r="J5" s="9">
+        <v>134.04037</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="8">
+        <v>-1.0926959999999999</v>
+      </c>
+      <c r="J6" s="9">
+        <v>134.04037</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="8">
+        <v>-1.0926959999999999</v>
+      </c>
+      <c r="J7" s="9">
+        <v>134.04037</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-1.150096</v>
+      </c>
+      <c r="J8" s="9">
+        <v>134.10925800000001</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="8">
+        <v>-1.150096</v>
+      </c>
+      <c r="J9" s="9">
+        <v>134.10925800000001</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="13">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
         <v>78</v>
       </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="9">
-        <v>-1.0292060000000001</v>
-      </c>
-      <c r="J4" s="10">
-        <v>134.064325</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="I10" s="8">
+        <v>-1.150096</v>
+      </c>
+      <c r="J10" s="9">
+        <v>134.10925800000001</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="M10" s="13">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="9">
-        <v>-1.0926959999999999</v>
-      </c>
-      <c r="J5" s="10">
-        <v>134.04037</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="P5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="9">
-        <v>-1.0926959999999999</v>
-      </c>
-      <c r="J6" s="10">
-        <v>134.04037</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="P6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="9">
-        <v>-1.0926959999999999</v>
-      </c>
-      <c r="J7" s="10">
-        <v>134.04037</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="P7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="9">
-        <v>-1.150096</v>
-      </c>
-      <c r="J8" s="10">
-        <v>134.10925800000001</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="P8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="9">
-        <v>-1.150096</v>
-      </c>
-      <c r="J9" s="10">
-        <v>134.10925800000001</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="9">
-        <v>-1.150096</v>
-      </c>
-      <c r="J10" s="10">
-        <v>134.10925800000001</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="P10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N45" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4404,21 +4173,21 @@
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="110.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="39.375" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -4450,30 +4219,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4491,20 +4260,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>

--- a/input_xlsx/Flora 003.xlsx
+++ b/input_xlsx/Flora 003.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Measurement" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -163,9 +162,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>PAPUA BARAT</t>
   </si>
   <si>
@@ -250,15 +246,6 @@
     <t>Undergraduate</t>
   </si>
   <si>
-    <t>UNIPA-2001ER-AF002</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF002-CAPA001</t>
-  </si>
-  <si>
-    <t>Observastion</t>
-  </si>
-  <si>
     <t>CAPA001-Dm</t>
   </si>
   <si>
@@ -266,13 +253,16 @@
   </si>
   <si>
     <t>Desa Mupi -1.029206, 134.064325 | Desa Acemo -1.092696, 134.04037 | Desa Warkapi -1.150096, 134.109258</t>
+  </si>
+  <si>
+    <t>Observation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,7 +485,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -508,9 +498,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -940,35 +928,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.58203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
     <col min="14" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1030,30 +1018,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7">
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K2" s="8">
         <v>-0.95320000000000005</v>
@@ -1068,83 +1056,25 @@
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
       <c r="S2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1159,36 +1089,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:AC8"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="18.625" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="24.125" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.08203125" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
-    <col min="17" max="17" width="168.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="168.58203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1241,30 +1171,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="8">
         <v>-0.95320000000000005</v>
@@ -1278,37 +1208,37 @@
       <c r="L2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="11">
         <v>3</v>
       </c>
       <c r="P2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="8">
         <v>-0.95320000000000005</v>
@@ -1322,37 +1252,37 @@
       <c r="L3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="11">
         <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="8">
         <v>-0.95320000000000005</v>
@@ -1360,150 +1290,17 @@
       <c r="J4" s="9">
         <v>133.834</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="12">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="H6" s="12"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="H7" s="12"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="H8" s="12"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="H9" s="12"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="H10" s="12"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="H11" s="12"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="9:17">
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="9:17">
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="9:17">
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="9:17">
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="9:17">
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="9:17">
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="9:17">
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="46" spans="14:14">
-      <c r="N46" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1519,29 +1316,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="110.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="39.375" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1573,30 +1370,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1606,27 +1403,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="28.58203125" customWidth="1"/>
+    <col min="9" max="9" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>

--- a/input_xlsx/Flora 003.xlsx
+++ b/input_xlsx/Flora 003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Events" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>occurrenceID</t>
   </si>
@@ -180,9 +180,6 @@
     <t xml:space="preserve">pemasangan jerat </t>
   </si>
   <si>
-    <t>UNIPA-2001ER-AF003-CAPA001</t>
-  </si>
-  <si>
     <t>PAPUA</t>
   </si>
   <si>
@@ -213,15 +210,6 @@
     <t>living specimen</t>
   </si>
   <si>
-    <t>UNIPA-2001ER-AF003-CAPA001-VE001</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA001-VE002</t>
-  </si>
-  <si>
-    <t>UNIPA-2001ER-AF003-CAPA001-VE003</t>
-  </si>
-  <si>
     <t>Phot syei</t>
   </si>
   <si>
@@ -256,6 +244,21 @@
   </si>
   <si>
     <t>Observation</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AM003</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AM003-CAPA001</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AM003-CAPA001-VE001</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AM003-CAPA001-VE002</t>
+  </si>
+  <si>
+    <t>UNIPA-2001ER-AM003-CAPA001-VE003</t>
   </si>
 </sst>
 </file>
@@ -931,9 +934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1020,16 +1023,16 @@
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>51</v>
@@ -1038,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K2" s="8">
         <v>-0.95320000000000005</v>
@@ -1056,7 +1059,7 @@
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
         <v>46</v>
@@ -1068,10 +1071,10 @@
         <v>47</v>
       </c>
       <c r="S2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
@@ -1092,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1173,28 +1176,28 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I2" s="8">
         <v>-0.95320000000000005</v>
@@ -1212,33 +1215,33 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I3" s="8">
         <v>-0.95320000000000005</v>
@@ -1256,33 +1259,33 @@
         <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I4" s="8">
         <v>-0.95320000000000005</v>
@@ -1300,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1375,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1390,10 +1393,10 @@
         <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
